--- a/out/analysis.xlsx
+++ b/out/analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\David\Uni\UofT MSc AC\Courses\Fall 2020\CSC2412 - Algorithms for Private Data Analysis\Project\csc2412-project\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD2A231-7EB2-4C23-B3B5-9026B0AB7817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46C3968-9D3A-42B2-BF18-BC9C14A238F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82524957-DA72-4FEF-BFF7-0505494F1D36}"/>
   </bookViews>
   <sheets>
     <sheet name="DistilBERT" sheetId="1" r:id="rId1"/>
     <sheet name="T5" sheetId="2" r:id="rId2"/>
+    <sheet name="GPT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>Epoch</t>
   </si>
@@ -109,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -148,62 +152,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Loss</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -212,6 +161,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -222,7 +174,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -231,34 +195,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,6 +276,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -322,7 +289,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -331,34 +310,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,6 +391,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -422,7 +404,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -431,34 +425,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,6 +506,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -522,7 +519,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -531,34 +540,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,6 +626,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1648113647"/>
         <c:axId val="1648115727"/>
@@ -628,6 +638,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -650,7 +715,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -676,6 +741,7 @@
         <c:axId val="1648115727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -693,6 +759,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -709,7 +830,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -751,7 +872,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -791,7 +912,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -818,62 +939,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Epsilon</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -882,17 +948,32 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -901,34 +982,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,17 +1063,32 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1001,34 +1097,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,17 +1178,34 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="93000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1101,34 +1214,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,6 +1300,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1645074607"/>
         <c:axId val="1645074191"/>
@@ -1198,6 +1312,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1220,7 +1389,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1264,6 +1433,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epsilon (Log-scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1280,7 +1504,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1322,7 +1546,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1362,7 +1586,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1389,62 +1613,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Loss</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1453,6 +1622,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1463,7 +1635,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1472,34 +1656,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,6 +1737,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1563,7 +1750,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1572,34 +1771,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,6 +1852,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1663,7 +1865,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1672,34 +1886,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,6 +1967,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1763,7 +1980,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1772,34 +2001,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,6 +2087,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1648116559"/>
         <c:axId val="1648116975"/>
@@ -1869,6 +2099,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1891,7 +2176,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1917,6 +2202,7 @@
         <c:axId val="1648116975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1934,6 +2220,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1950,7 +2291,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1992,7 +2333,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2032,7 +2373,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2142,34 +2483,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,34 +2583,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,34 +2683,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,6 +2957,793 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>GPT!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPT!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69791104535922299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.689160736168132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68443853470980298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68045360215789497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67828254435983104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67606084098291497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67542320169756098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67387329480227298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67273898060669302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67124587320305795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C8C-4B8A-AF32-49A4DF34F61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>GPT!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPT!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.208548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.257239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.135286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2202850000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.184377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2278830000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2857080000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.266594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.169203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C8C-4B8A-AF32-49A4DF34F61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>GPT!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPT!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3194330000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.315823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.414641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3751770000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.323674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3658250000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.385912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.39716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.438369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4821519999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C8C-4B8A-AF32-49A4DF34F61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DP-SGD w/sigma=0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>GPT!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPT!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3483080000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5409930000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.803291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9348700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.90103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.912636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8430960000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8860699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8871979999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.777021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C8C-4B8A-AF32-49A4DF34F61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="611664496"/>
+        <c:axId val="611672816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="611664496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611672816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611672816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611664496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2776,6 +3904,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4325,6 +5493,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4847,13 +6531,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380324</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13836</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4880,16 +6564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>819149</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380324</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4927,10 +6611,10 @@
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175761</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4957,16 +6641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4986,6 +6670,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437474</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF62DE8E-A9D2-4715-A1BA-90E3B500B646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5293,8 +7018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D137E83-25D6-4E1D-A444-95D157314349}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,28 +7040,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="O1" t="s">
         <v>10</v>
       </c>
@@ -5348,7 +7073,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5394,7 +7119,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.47686772684916801</v>
@@ -5441,7 +7166,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.397243949363146</v>
@@ -5479,7 +7204,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0.35735770049111898</v>
@@ -5517,7 +7242,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.32307594144702501</v>
@@ -5555,7 +7280,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0.282180948140066</v>
@@ -5593,7 +7318,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0.242998009480898</v>
@@ -5631,7 +7356,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0.204675230728771</v>
@@ -5669,7 +7394,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0.169749020898948</v>
@@ -5707,7 +7432,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.13329371739097901</v>
@@ -5745,7 +7470,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0.104437415104578</v>
@@ -5799,8 +7524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6144AF-9791-4F22-86BB-F3654907A067}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5819,31 +7544,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5880,7 +7605,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.46740725419252999</v>
@@ -5918,7 +7643,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.15007530549145701</v>
@@ -5956,7 +7681,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>6.4092692113993502E-2</v>
@@ -5994,7 +7719,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>3.9547864616255403E-2</v>
@@ -6032,7 +7757,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2.9355659850460899E-2</v>
@@ -6070,7 +7795,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2.2596142058263099E-2</v>
@@ -6108,7 +7833,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1.94299527819243E-2</v>
@@ -6146,7 +7871,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1.68312304070257E-2</v>
@@ -6184,7 +7909,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1.42474076842018E-2</v>
@@ -6222,7 +7947,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1.3709075595734499E-2</v>
@@ -6253,6 +7978,483 @@
       </c>
       <c r="K12">
         <v>0.73188083730697595</v>
+      </c>
+      <c r="L12">
+        <v>7.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84310114-D1C4-4EFB-8EEB-382B59D0E355}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.69791104535922299</v>
+      </c>
+      <c r="C3">
+        <v>0.68583865536143396</v>
+      </c>
+      <c r="D3">
+        <v>1.2643</v>
+      </c>
+      <c r="E3">
+        <v>1.1401955553495799</v>
+      </c>
+      <c r="F3">
+        <v>1259.18</v>
+      </c>
+      <c r="G3">
+        <v>1.3194330000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.4738776206320501</v>
+      </c>
+      <c r="I3">
+        <v>25.41</v>
+      </c>
+      <c r="J3">
+        <v>1.3483080000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.912826973586082</v>
+      </c>
+      <c r="L3">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.689160736168132</v>
+      </c>
+      <c r="C4">
+        <v>0.68034648887641502</v>
+      </c>
+      <c r="D4">
+        <v>1.208548</v>
+      </c>
+      <c r="E4">
+        <v>1.6499253140121699</v>
+      </c>
+      <c r="F4">
+        <v>2380.21</v>
+      </c>
+      <c r="G4">
+        <v>1.315823</v>
+      </c>
+      <c r="H4">
+        <v>1.22295656622409</v>
+      </c>
+      <c r="I4">
+        <v>30.02</v>
+      </c>
+      <c r="J4">
+        <v>1.5409930000000001</v>
+      </c>
+      <c r="K4">
+        <v>1.33235647050499</v>
+      </c>
+      <c r="L4">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.68443853470980298</v>
+      </c>
+      <c r="C5">
+        <v>0.68403193556591602</v>
+      </c>
+      <c r="D5">
+        <v>1.257239</v>
+      </c>
+      <c r="E5">
+        <v>0.81959922146201103</v>
+      </c>
+      <c r="F5">
+        <v>3501.24</v>
+      </c>
+      <c r="G5">
+        <v>1.414641</v>
+      </c>
+      <c r="H5">
+        <v>0.9376148680377</v>
+      </c>
+      <c r="I5">
+        <v>33.51</v>
+      </c>
+      <c r="J5">
+        <v>1.803291</v>
+      </c>
+      <c r="K5">
+        <v>0.695882275676727</v>
+      </c>
+      <c r="L5">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.68045360215789497</v>
+      </c>
+      <c r="C6">
+        <v>0.68493606115850902</v>
+      </c>
+      <c r="D6">
+        <v>1.135286</v>
+      </c>
+      <c r="E6">
+        <v>0.88006928063034995</v>
+      </c>
+      <c r="F6">
+        <v>4622.2700000000004</v>
+      </c>
+      <c r="G6">
+        <v>1.3751770000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.96712182972431104</v>
+      </c>
+      <c r="I6">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="J6">
+        <v>1.9348700000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.70713591881275095</v>
+      </c>
+      <c r="L6">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.67828254435983104</v>
+      </c>
+      <c r="C7">
+        <v>0.68025166886236899</v>
+      </c>
+      <c r="D7">
+        <v>1.2202850000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.1376788476014099</v>
+      </c>
+      <c r="F7">
+        <v>5743.3</v>
+      </c>
+      <c r="G7">
+        <v>1.323674</v>
+      </c>
+      <c r="H7">
+        <v>1.03236082770228</v>
+      </c>
+      <c r="I7">
+        <v>39.19</v>
+      </c>
+      <c r="J7">
+        <v>1.90103</v>
+      </c>
+      <c r="K7">
+        <v>0.71938219347953702</v>
+      </c>
+      <c r="L7">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.67606084098291497</v>
+      </c>
+      <c r="C8">
+        <v>0.67603186824742401</v>
+      </c>
+      <c r="D8">
+        <v>1.184377</v>
+      </c>
+      <c r="E8">
+        <v>1.56618273174017</v>
+      </c>
+      <c r="F8">
+        <v>6864.33</v>
+      </c>
+      <c r="G8">
+        <v>1.3658250000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.43145470628917</v>
+      </c>
+      <c r="I8">
+        <v>41.5</v>
+      </c>
+      <c r="J8">
+        <v>1.912636</v>
+      </c>
+      <c r="K8">
+        <v>1.18748267144799</v>
+      </c>
+      <c r="L8">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.67542320169756098</v>
+      </c>
+      <c r="C9">
+        <v>0.68062912404079801</v>
+      </c>
+      <c r="D9">
+        <v>1.2278830000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.83678004370331704</v>
+      </c>
+      <c r="F9">
+        <v>7985.36</v>
+      </c>
+      <c r="G9">
+        <v>1.385912</v>
+      </c>
+      <c r="H9">
+        <v>0.82060200343847201</v>
+      </c>
+      <c r="I9">
+        <v>43.81</v>
+      </c>
+      <c r="J9">
+        <v>1.8430960000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.90779606288790704</v>
+      </c>
+      <c r="L9">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.67387329480227298</v>
+      </c>
+      <c r="C10">
+        <v>0.68456636296818596</v>
+      </c>
+      <c r="D10">
+        <v>1.2857080000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.09414658024907</v>
+      </c>
+      <c r="F10">
+        <v>9106.39</v>
+      </c>
+      <c r="G10">
+        <v>1.39716</v>
+      </c>
+      <c r="H10">
+        <v>0.82848028571128796</v>
+      </c>
+      <c r="I10">
+        <v>46.12</v>
+      </c>
+      <c r="J10">
+        <v>1.8860699999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.85608779694557102</v>
+      </c>
+      <c r="L10">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.67273898060669302</v>
+      </c>
+      <c r="C11">
+        <v>0.67913400021660297</v>
+      </c>
+      <c r="D11">
+        <v>1.266594</v>
+      </c>
+      <c r="E11">
+        <v>1.10652991685032</v>
+      </c>
+      <c r="F11">
+        <v>10227.41</v>
+      </c>
+      <c r="G11">
+        <v>1.438369</v>
+      </c>
+      <c r="H11">
+        <v>0.83727600009202896</v>
+      </c>
+      <c r="I11">
+        <v>48.43</v>
+      </c>
+      <c r="J11">
+        <v>1.8871979999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.711332564134597</v>
+      </c>
+      <c r="L11">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.67124587320305795</v>
+      </c>
+      <c r="C12">
+        <v>0.68185745701765399</v>
+      </c>
+      <c r="D12">
+        <v>1.169203</v>
+      </c>
+      <c r="E12">
+        <v>0.74506627378463697</v>
+      </c>
+      <c r="F12">
+        <v>11348.44</v>
+      </c>
+      <c r="G12">
+        <v>1.4821519999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.74946196286201405</v>
+      </c>
+      <c r="I12">
+        <v>50.71</v>
+      </c>
+      <c r="J12">
+        <v>1.777021</v>
+      </c>
+      <c r="K12">
+        <v>0.70819268048286399</v>
       </c>
       <c r="L12">
         <v>7.44</v>
